--- a/Meta-Mar_analysis_result.xlsx
+++ b/Meta-Mar_analysis_result.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Study</t>
   </si>
   <si>
-    <t>Group1-sample</t>
+    <t>Group1-sample size</t>
   </si>
   <si>
     <t>Group1-mean</t>
@@ -28,7 +28,7 @@
     <t>Group1-sd</t>
   </si>
   <si>
-    <t>Group2-sample</t>
+    <t>Group2-sample size</t>
   </si>
   <si>
     <t>Group2-mean</t>
@@ -37,43 +37,49 @@
     <t>Group2-sd</t>
   </si>
   <si>
+    <t>d_lower</t>
+  </si>
+  <si>
     <t>d</t>
   </si>
   <si>
+    <t>d_upper</t>
+  </si>
+  <si>
+    <t>g_lower</t>
+  </si>
+  <si>
     <t>g</t>
   </si>
   <si>
-    <t>SEd</t>
-  </si>
-  <si>
-    <t>SEg</t>
-  </si>
-  <si>
-    <t>d_lower</t>
-  </si>
-  <si>
-    <t>d_upper</t>
-  </si>
-  <si>
-    <t>g_lower</t>
-  </si>
-  <si>
     <t>g_upper</t>
   </si>
   <si>
-    <t>weight (d)</t>
-  </si>
-  <si>
-    <t>weighted d</t>
-  </si>
-  <si>
-    <t>weight (g)</t>
-  </si>
-  <si>
-    <t>weighted g</t>
-  </si>
-  <si>
-    <t>jhgkjhg</t>
+    <t>Rapport et al. 2002</t>
+  </si>
+  <si>
+    <t>Richard-Lepouriel et al. 2016</t>
+  </si>
+  <si>
+    <t>Mitchell et al. 2012</t>
+  </si>
+  <si>
+    <t>Skirrow and Asherson 2013</t>
+  </si>
+  <si>
+    <t>Surman et al. 2015</t>
+  </si>
+  <si>
+    <t>Miller et al. 2011</t>
+  </si>
+  <si>
+    <t>Bisch et al. 2016</t>
+  </si>
+  <si>
+    <t>Irastorza &amp; Bellon 2016</t>
+  </si>
+  <si>
+    <t>Corbisiero et al. 2017</t>
   </si>
 </sst>
 </file>
@@ -431,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,85 +483,401 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>22.3</v>
+      </c>
+      <c r="F2">
+        <v>1.8</v>
+      </c>
+      <c r="G2">
+        <v>20.9</v>
+      </c>
+      <c r="H2">
+        <v>2.8</v>
+      </c>
+      <c r="I2">
+        <v>-1.186360421473513</v>
+      </c>
+      <c r="J2">
+        <v>0.3229926134031763</v>
+      </c>
+      <c r="K2">
+        <v>1.832345648279865</v>
+      </c>
+      <c r="L2">
+        <v>-1.154063858275504</v>
+      </c>
+      <c r="M2">
+        <v>0.3141997110419282</v>
+      </c>
+      <c r="N2">
+        <v>1.782463280359361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>150</v>
+      </c>
+      <c r="E3">
+        <v>1.4</v>
+      </c>
+      <c r="F3">
+        <v>0.58</v>
+      </c>
+      <c r="G3">
+        <v>2.28</v>
+      </c>
+      <c r="H3">
+        <v>0.76</v>
+      </c>
+      <c r="I3">
+        <v>84.1062388256622</v>
+      </c>
+      <c r="J3">
+        <v>105.1803650482903</v>
+      </c>
+      <c r="K3">
+        <v>126.2544912709184</v>
+      </c>
+      <c r="L3">
+        <v>82.74470895043564</v>
+      </c>
+      <c r="M3">
+        <v>103.4776826872668</v>
+      </c>
+      <c r="N3">
+        <v>124.210656424098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="F4">
+        <v>5.21</v>
+      </c>
+      <c r="G4">
+        <v>16.8</v>
+      </c>
+      <c r="H4">
+        <v>7.06</v>
+      </c>
+      <c r="I4">
+        <v>-0.8178378261749657</v>
+      </c>
+      <c r="J4">
+        <v>0.1337903172097393</v>
+      </c>
+      <c r="K4">
+        <v>1.085418460594444</v>
+      </c>
+      <c r="L4">
+        <v>-0.7942099999179847</v>
+      </c>
+      <c r="M4">
+        <v>0.1299250345476705</v>
+      </c>
+      <c r="N4">
+        <v>1.054060069013326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>47</v>
+      </c>
+      <c r="E5">
+        <v>1.4</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <v>2.6</v>
+      </c>
+      <c r="H5">
+        <v>0.7</v>
+      </c>
+      <c r="I5">
+        <v>24.22371030407955</v>
+      </c>
+      <c r="J5">
+        <v>31.56480670910766</v>
+      </c>
+      <c r="K5">
+        <v>38.90590311413577</v>
+      </c>
+      <c r="L5">
+        <v>23.76083685877866</v>
+      </c>
+      <c r="M5">
+        <v>30.96165753632216</v>
+      </c>
+      <c r="N5">
+        <v>38.16247821386567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>119</v>
+      </c>
+      <c r="D6">
+        <v>206</v>
+      </c>
+      <c r="E6">
+        <v>2.7</v>
+      </c>
+      <c r="F6">
+        <v>2.2</v>
+      </c>
+      <c r="G6">
+        <v>10.86</v>
+      </c>
+      <c r="H6">
+        <v>3.38</v>
+      </c>
+      <c r="I6">
+        <v>62.89845514081996</v>
+      </c>
+      <c r="J6">
+        <v>72.06863281149261</v>
+      </c>
+      <c r="K6">
+        <v>81.23881048216526</v>
+      </c>
+      <c r="L6">
+        <v>62.50186967334946</v>
+      </c>
+      <c r="M6">
+        <v>71.61422781268118</v>
+      </c>
+      <c r="N6">
+        <v>80.7265859520129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>2.22</v>
+      </c>
+      <c r="F7">
+        <v>1.44</v>
+      </c>
+      <c r="G7">
+        <v>2.24</v>
+      </c>
+      <c r="H7">
+        <v>1.48</v>
+      </c>
+      <c r="I7">
+        <v>3.991855181733354</v>
+      </c>
+      <c r="J7">
+        <v>6.69573901571918</v>
+      </c>
+      <c r="K7">
+        <v>9.399622849705006</v>
+      </c>
+      <c r="L7">
+        <v>3.817690470488444</v>
+      </c>
+      <c r="M7">
+        <v>6.403603805609269</v>
+      </c>
+      <c r="N7">
+        <v>8.989517140730094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C2">
-        <v>857</v>
-      </c>
-      <c r="D2">
-        <v>786</v>
-      </c>
-      <c r="E2">
-        <v>87</v>
-      </c>
-      <c r="F2">
-        <v>876</v>
-      </c>
-      <c r="G2">
-        <v>6876</v>
-      </c>
-      <c r="H2">
-        <v>876</v>
-      </c>
-      <c r="I2">
-        <v>9.731334895875589</v>
-      </c>
-      <c r="J2">
-        <v>9.727117937232281</v>
-      </c>
-      <c r="K2">
-        <v>0.1721355634866892</v>
-      </c>
-      <c r="L2">
-        <v>0.1720609705803682</v>
-      </c>
-      <c r="M2">
-        <v>9.393949191441678</v>
-      </c>
-      <c r="N2">
-        <v>10.0687206003095</v>
-      </c>
-      <c r="O2">
-        <v>9.38987843489476</v>
-      </c>
-      <c r="P2">
-        <v>10.0643574395698</v>
-      </c>
-      <c r="Q2">
-        <v>33.74883524940837</v>
-      </c>
-      <c r="R2">
-        <v>328.4212181577238</v>
-      </c>
-      <c r="S2">
-        <v>33.77810358820754</v>
-      </c>
-      <c r="T2">
-        <v>328.5635972985436</v>
+      <c r="C8">
+        <v>31</v>
+      </c>
+      <c r="D8">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>129.7</v>
+      </c>
+      <c r="F8">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>110.7</v>
+      </c>
+      <c r="H8">
+        <v>25</v>
+      </c>
+      <c r="I8">
+        <v>0.3797295492247109</v>
+      </c>
+      <c r="J8">
+        <v>0.9168412983498631</v>
+      </c>
+      <c r="K8">
+        <v>1.453953047475015</v>
+      </c>
+      <c r="L8">
+        <v>0.3747110970323139</v>
+      </c>
+      <c r="M8">
+        <v>0.9047244529972217</v>
+      </c>
+      <c r="N8">
+        <v>1.434737808962129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>78</v>
+      </c>
+      <c r="E9">
+        <v>14.4</v>
+      </c>
+      <c r="F9">
+        <v>5.8</v>
+      </c>
+      <c r="G9">
+        <v>17.5</v>
+      </c>
+      <c r="H9">
+        <v>7.4</v>
+      </c>
+      <c r="I9">
+        <v>3.06087688448589</v>
+      </c>
+      <c r="J9">
+        <v>4.465240370155628</v>
+      </c>
+      <c r="K9">
+        <v>5.869603855825365</v>
+      </c>
+      <c r="L9">
+        <v>2.985732607452685</v>
+      </c>
+      <c r="M9">
+        <v>4.355619084472592</v>
+      </c>
+      <c r="N9">
+        <v>5.725505561492501</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>121</v>
+      </c>
+      <c r="D10">
+        <v>393</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>1.5</v>
+      </c>
+      <c r="G10">
+        <v>14.78</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>32.8862866831828</v>
+      </c>
+      <c r="J10">
+        <v>37.89755592681137</v>
+      </c>
+      <c r="K10">
+        <v>42.90882517043995</v>
+      </c>
+      <c r="L10">
+        <v>32.68117470802781</v>
+      </c>
+      <c r="M10">
+        <v>37.66118863412856</v>
+      </c>
+      <c r="N10">
+        <v>42.6412025602293</v>
       </c>
     </row>
   </sheetData>

--- a/Meta-Mar_analysis_result.xlsx
+++ b/Meta-Mar_analysis_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Study</t>
   </si>
@@ -55,31 +55,34 @@
     <t>g_upper</t>
   </si>
   <si>
-    <t>Rapport et al. 2002</t>
-  </si>
-  <si>
-    <t>Richard-Lepouriel et al. 2016</t>
-  </si>
-  <si>
-    <t>Mitchell et al. 2012</t>
-  </si>
-  <si>
-    <t>Skirrow and Asherson 2013</t>
-  </si>
-  <si>
-    <t>Surman et al. 2015</t>
-  </si>
-  <si>
-    <t>Miller et al. 2011</t>
-  </si>
-  <si>
-    <t>Bisch et al. 2016</t>
-  </si>
-  <si>
-    <t>Irastorza &amp; Bellon 2016</t>
-  </si>
-  <si>
-    <t>Corbisiero et al. 2017</t>
+    <t>Bisch 2017</t>
+  </si>
+  <si>
+    <t>Corbisiero 2017</t>
+  </si>
+  <si>
+    <t>Irastorza 2016</t>
+  </si>
+  <si>
+    <t>Miller et al., 2015</t>
+  </si>
+  <si>
+    <t>Mitchell et al., 2012</t>
+  </si>
+  <si>
+    <t>Rapport et al., 2012</t>
+  </si>
+  <si>
+    <t>Reimherr et al.</t>
+  </si>
+  <si>
+    <t>Richard-Lepouriel et al., 2015</t>
+  </si>
+  <si>
+    <t>Skirrow &amp; Asherson</t>
+  </si>
+  <si>
+    <t>Surman 2015</t>
   </si>
 </sst>
 </file>
@@ -437,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,40 +495,40 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E2">
-        <v>22.3</v>
+        <v>10.11</v>
       </c>
       <c r="F2">
-        <v>1.8</v>
+        <v>31</v>
       </c>
       <c r="G2">
-        <v>20.9</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>2.8</v>
+        <v>5.8</v>
       </c>
       <c r="I2">
-        <v>-1.186360421473513</v>
+        <v>3.108841606501667</v>
       </c>
       <c r="J2">
-        <v>0.3229926134031763</v>
+        <v>4.042825796310663</v>
       </c>
       <c r="K2">
-        <v>1.832345648279865</v>
+        <v>4.97680998611966</v>
       </c>
       <c r="L2">
-        <v>-1.154063858275504</v>
+        <v>3.063785931045121</v>
       </c>
       <c r="M2">
-        <v>0.3141997110419282</v>
+        <v>3.984234118103263</v>
       </c>
       <c r="N2">
-        <v>1.782463280359361</v>
+        <v>4.904682305161404</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -536,40 +539,40 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>150</v>
+        <v>61</v>
       </c>
       <c r="E3">
-        <v>1.4</v>
+        <v>8.9</v>
       </c>
       <c r="F3">
-        <v>0.58</v>
+        <v>34</v>
       </c>
       <c r="G3">
-        <v>2.28</v>
+        <v>11</v>
       </c>
       <c r="H3">
-        <v>0.76</v>
+        <v>2.5</v>
       </c>
       <c r="I3">
-        <v>84.1062388256622</v>
+        <v>7.484471779657643</v>
       </c>
       <c r="J3">
-        <v>105.1803650482903</v>
+        <v>9.452021139659568</v>
       </c>
       <c r="K3">
-        <v>126.2544912709184</v>
+        <v>11.41957049966149</v>
       </c>
       <c r="L3">
-        <v>82.74470895043564</v>
+        <v>7.36440003987704</v>
       </c>
       <c r="M3">
-        <v>103.4776826872668</v>
+        <v>9.300384436884281</v>
       </c>
       <c r="N3">
-        <v>124.210656424098</v>
+        <v>11.23636883389152</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -580,40 +583,40 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>23</v>
+        <v>158</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="E4">
-        <v>9.289999999999999</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>5.21</v>
+        <v>165</v>
       </c>
       <c r="G4">
-        <v>16.8</v>
+        <v>48</v>
       </c>
       <c r="H4">
-        <v>7.06</v>
+        <v>4.7</v>
       </c>
       <c r="I4">
-        <v>-0.8178378261749657</v>
+        <v>1.968132560391309</v>
       </c>
       <c r="J4">
-        <v>0.1337903172097393</v>
+        <v>2.246725834002373</v>
       </c>
       <c r="K4">
-        <v>1.085418460594444</v>
+        <v>2.525319107613438</v>
       </c>
       <c r="L4">
-        <v>-0.7942099999179847</v>
+        <v>1.963530535698266</v>
       </c>
       <c r="M4">
-        <v>0.1299250345476705</v>
+        <v>2.241472383104472</v>
       </c>
       <c r="N4">
-        <v>1.054060069013326</v>
+        <v>2.519414230510679</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -624,40 +627,40 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D5">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="E5">
-        <v>1.4</v>
+        <v>12.9</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>56</v>
       </c>
       <c r="G5">
-        <v>2.6</v>
+        <v>100</v>
       </c>
       <c r="H5">
-        <v>0.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I5">
-        <v>24.22371030407955</v>
+        <v>0.6925055345992166</v>
       </c>
       <c r="J5">
-        <v>31.56480670910766</v>
+        <v>1.11660176884416</v>
       </c>
       <c r="K5">
-        <v>38.90590311413577</v>
+        <v>1.540698003089103</v>
       </c>
       <c r="L5">
-        <v>23.76083685877866</v>
+        <v>0.6871921929015243</v>
       </c>
       <c r="M5">
-        <v>30.96165753632216</v>
+        <v>1.108034491845356</v>
       </c>
       <c r="N5">
-        <v>38.16247821386567</v>
+        <v>1.528876790789187</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -668,40 +671,40 @@
         <v>17</v>
       </c>
       <c r="C6">
-        <v>119</v>
+        <v>18</v>
       </c>
       <c r="D6">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="E6">
-        <v>2.7</v>
+        <v>24.8</v>
       </c>
       <c r="F6">
-        <v>2.2</v>
+        <v>23</v>
       </c>
       <c r="G6">
-        <v>10.86</v>
+        <v>105</v>
       </c>
       <c r="H6">
-        <v>3.38</v>
+        <v>19.2</v>
       </c>
       <c r="I6">
-        <v>62.89845514081996</v>
+        <v>-0.3896323449231815</v>
       </c>
       <c r="J6">
-        <v>72.06863281149261</v>
+        <v>0.2291637613325538</v>
       </c>
       <c r="K6">
-        <v>81.23881048216526</v>
+        <v>0.8479598675882891</v>
       </c>
       <c r="L6">
-        <v>62.50186967334946</v>
+        <v>-0.3820910737311198</v>
       </c>
       <c r="M6">
-        <v>71.61422781268118</v>
+        <v>0.2247283336938593</v>
       </c>
       <c r="N6">
-        <v>80.7265859520129</v>
+        <v>0.8315477411188383</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -712,40 +715,40 @@
         <v>18</v>
       </c>
       <c r="C7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="E7">
-        <v>2.22</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>1.44</v>
+        <v>28</v>
       </c>
       <c r="G7">
-        <v>2.24</v>
+        <v>56</v>
       </c>
       <c r="H7">
-        <v>1.48</v>
+        <v>18.7</v>
       </c>
       <c r="I7">
-        <v>3.991855181733354</v>
+        <v>1.418533679792841</v>
       </c>
       <c r="J7">
-        <v>6.69573901571918</v>
+        <v>2.067378886519908</v>
       </c>
       <c r="K7">
-        <v>9.399622849705006</v>
+        <v>2.716224093246975</v>
       </c>
       <c r="L7">
-        <v>3.817690470488444</v>
+        <v>1.39874018658643</v>
       </c>
       <c r="M7">
-        <v>6.403603805609269</v>
+        <v>2.038531739266142</v>
       </c>
       <c r="N7">
-        <v>8.989517140730094</v>
+        <v>2.678323291945855</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -756,40 +759,40 @@
         <v>19</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>270</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E8">
-        <v>129.7</v>
+        <v>5.8</v>
       </c>
       <c r="F8">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="G8">
-        <v>110.7</v>
+        <v>20</v>
       </c>
       <c r="H8">
-        <v>25</v>
+        <v>2.2</v>
       </c>
       <c r="I8">
-        <v>0.3797295492247109</v>
+        <v>4.909161074992021</v>
       </c>
       <c r="J8">
-        <v>0.9168412983498631</v>
+        <v>5.304711671626857</v>
       </c>
       <c r="K8">
-        <v>1.453953047475015</v>
+        <v>5.700262268261692</v>
       </c>
       <c r="L8">
-        <v>0.3747110970323139</v>
+        <v>4.900901129268535</v>
       </c>
       <c r="M8">
-        <v>0.9047244529972217</v>
+        <v>5.295786189285365</v>
       </c>
       <c r="N8">
-        <v>1.434737808962129</v>
+        <v>5.690671249302195</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -800,40 +803,40 @@
         <v>20</v>
       </c>
       <c r="C9">
-        <v>27</v>
+        <v>150</v>
       </c>
       <c r="D9">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E9">
-        <v>14.4</v>
+        <v>7.8</v>
       </c>
       <c r="F9">
-        <v>5.8</v>
+        <v>48</v>
       </c>
       <c r="G9">
-        <v>17.5</v>
+        <v>65</v>
       </c>
       <c r="H9">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="I9">
-        <v>3.06087688448589</v>
+        <v>1.179846186512855</v>
       </c>
       <c r="J9">
-        <v>4.465240370155628</v>
+        <v>1.538461538461539</v>
       </c>
       <c r="K9">
-        <v>5.869603855825365</v>
+        <v>1.897076890410222</v>
       </c>
       <c r="L9">
-        <v>2.985732607452685</v>
+        <v>1.175325703039625</v>
       </c>
       <c r="M9">
-        <v>4.355619084472592</v>
+        <v>1.532567049808429</v>
       </c>
       <c r="N9">
-        <v>5.725505561492501</v>
+        <v>1.889808396577233</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -844,40 +847,84 @@
         <v>21</v>
       </c>
       <c r="C10">
+        <v>41</v>
+      </c>
+      <c r="D10">
         <v>121</v>
       </c>
-      <c r="D10">
-        <v>393</v>
-      </c>
       <c r="E10">
+        <v>24.3</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>99</v>
+      </c>
+      <c r="H10">
+        <v>22</v>
+      </c>
+      <c r="I10">
+        <v>0.5105984684081362</v>
+      </c>
+      <c r="J10">
+        <v>0.9524521443662581</v>
+      </c>
+      <c r="K10">
+        <v>1.39430582032438</v>
+      </c>
+      <c r="L10">
+        <v>0.5061325925911555</v>
+      </c>
+      <c r="M10">
+        <v>0.9441216591385649</v>
+      </c>
+      <c r="N10">
+        <v>1.382110725685974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>1.5</v>
-      </c>
-      <c r="G10">
-        <v>14.78</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>32.8862866831828</v>
-      </c>
-      <c r="J10">
-        <v>37.89755592681137</v>
-      </c>
-      <c r="K10">
-        <v>42.90882517043995</v>
-      </c>
-      <c r="L10">
-        <v>32.68117470802781</v>
-      </c>
-      <c r="M10">
-        <v>37.66118863412856</v>
-      </c>
-      <c r="N10">
-        <v>42.6412025602293</v>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>206</v>
+      </c>
+      <c r="D11">
+        <v>124</v>
+      </c>
+      <c r="E11">
+        <v>22.4</v>
+      </c>
+      <c r="F11">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>104</v>
+      </c>
+      <c r="H11">
+        <v>21.4</v>
+      </c>
+      <c r="I11">
+        <v>0.6738982422266637</v>
+      </c>
+      <c r="J11">
+        <v>0.9077614535513256</v>
+      </c>
+      <c r="K11">
+        <v>1.141624664875988</v>
+      </c>
+      <c r="L11">
+        <v>0.6723514214717441</v>
+      </c>
+      <c r="M11">
+        <v>0.9056778388912997</v>
+      </c>
+      <c r="N11">
+        <v>1.139004256310855</v>
       </c>
     </row>
   </sheetData>
